--- a/论文用图表/表4.4：改变w_min.xlsx
+++ b/论文用图表/表4.4：改变w_min.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyhan\Desktop\毕业论文\中国市场\论文用图表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0754E3E9-EC0B-4406-9B66-87914985F6E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06F9A78-C3DF-4D8D-B226-648C5847A2F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ridge</t>
   </si>
@@ -48,19 +48,11 @@
     <t>OMP</t>
   </si>
   <si>
-    <t>***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Kitchen Sink</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>**</t>
+    <t>FC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -106,10 +98,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -117,40 +107,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -160,22 +119,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="G12:K24"/>
+  <dimension ref="F3:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -469,193 +431,469 @@
     <col min="7" max="7" width="11.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="7:11" x14ac:dyDescent="0.4">
-      <c r="G12" s="6"/>
-      <c r="H12" s="5">
+    <row r="3" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="6:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="F12" s="3"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8">
         <v>24</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="8">
         <v>36</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="8">
         <v>48</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="7:11" x14ac:dyDescent="0.4">
-      <c r="G13" s="7" t="s">
+    <row r="13" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="F13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-8.1143510053693593</v>
+      </c>
+      <c r="I13" s="2">
+        <v>-8.3485252128143888</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-9.2038579067394295</v>
+      </c>
+      <c r="K13" s="1">
+        <v>-7.7307422241647199</v>
+      </c>
+    </row>
+    <row r="14" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="F14" s="3"/>
+      <c r="G14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="1">
-        <v>3.8218699904659701</v>
-      </c>
-      <c r="I13" s="2">
-        <v>3.1322298184282302</v>
-      </c>
-      <c r="J13" s="1">
-        <v>3.6446392745691099</v>
-      </c>
-      <c r="K13" s="1">
-        <v>3.8248030590189801</v>
-      </c>
-    </row>
-    <row r="14" spans="7:11" x14ac:dyDescent="0.4">
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="1">
+        <v>0.70232731354297095</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.90469038344655994</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.18181542552969</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.81213918856247702</v>
+      </c>
+    </row>
+    <row r="15" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="F15" s="3"/>
+      <c r="G15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="1">
-        <v>3.8125317644173999</v>
-      </c>
-      <c r="I14" s="2">
-        <v>4.3382368823079807</v>
-      </c>
-      <c r="J14" s="1">
-        <v>3.9480265440740903</v>
-      </c>
-      <c r="K14" s="1">
-        <v>4.1456021876939504</v>
-      </c>
-    </row>
-    <row r="15" spans="7:11" x14ac:dyDescent="0.4">
-      <c r="G15" s="7" t="s">
-        <v>2</v>
-      </c>
       <c r="H15" s="1">
-        <v>4.0032255576288298</v>
+        <v>2.4768748149202198</v>
       </c>
       <c r="I15" s="2">
-        <v>4.3814360933596799</v>
+        <v>3.1724849872776697</v>
       </c>
       <c r="J15" s="1">
-        <v>3.9795136469152399</v>
+        <v>2.3807802260534001</v>
       </c>
       <c r="K15" s="1">
-        <v>4.2499787187572506</v>
-      </c>
-    </row>
-    <row r="16" spans="7:11" x14ac:dyDescent="0.4">
-      <c r="G16" s="7" t="s">
+        <v>2.2983584929410199</v>
+      </c>
+    </row>
+    <row r="16" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="F16" s="3"/>
+      <c r="G16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2.61077288641942</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3.1154787266854003</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2.39299778932787</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2.2819218498016101</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="F17" s="3"/>
+      <c r="G17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="1">
-        <v>-0.83745886212716003</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.93479088341247296</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.85334026162865395</v>
-      </c>
-      <c r="K16" s="1">
-        <v>2.1462223532261198</v>
-      </c>
-    </row>
-    <row r="17" spans="7:11" x14ac:dyDescent="0.4">
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="1">
+        <v>0.65495029655182602</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.64059598892444103</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.46147983346780297</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.30065432377860402</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="F18" s="3"/>
+      <c r="G18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="1">
-        <v>3.4592452443360902</v>
-      </c>
-      <c r="I17" s="2">
-        <v>2.45490866247426</v>
-      </c>
-      <c r="J17" s="1">
-        <v>2.7030172761063698</v>
-      </c>
-      <c r="K17" s="1">
-        <v>3.15991428671814</v>
-      </c>
-    </row>
-    <row r="18" spans="7:11" x14ac:dyDescent="0.4">
-      <c r="G18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-8.7785890968530893</v>
-      </c>
-      <c r="I18" s="4">
-        <v>-8.7037525426751188</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-7.6551638499713501</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-5.30729032325298</v>
-      </c>
-    </row>
-    <row r="19" spans="7:11" x14ac:dyDescent="0.4">
-      <c r="H19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="7:11" x14ac:dyDescent="0.4">
-      <c r="H20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="7:11" x14ac:dyDescent="0.4">
-      <c r="H21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="7:11" x14ac:dyDescent="0.4">
-      <c r="J22" t="s">
+      <c r="H18" s="1">
+        <v>1.62947328168273</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2.19544579961822</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.171463897042722</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.94526011162685497</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F19" s="3"/>
+      <c r="G19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="7:11" x14ac:dyDescent="0.4">
-      <c r="H23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="7:11" x14ac:dyDescent="0.4">
-      <c r="H24" t="s">
-        <v>6</v>
-      </c>
-      <c r="K24" t="s">
-        <v>6</v>
+      <c r="H19" s="5">
+        <v>2.6236387343948699</v>
+      </c>
+      <c r="I19" s="6">
+        <v>2.88949229411782</v>
+      </c>
+      <c r="J19" s="5">
+        <v>2.1883223325922003</v>
+      </c>
+      <c r="K19" s="5">
+        <v>2.09882184797035</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="H21" s="9">
+        <v>-8.1143510053693593E-2</v>
+      </c>
+      <c r="I21" s="9">
+        <v>-8.3485252128143894E-2</v>
+      </c>
+      <c r="J21" s="9">
+        <v>-9.2038579067394294E-2</v>
+      </c>
+      <c r="K21" s="9">
+        <v>-7.7307422241647203E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="H22" s="9">
+        <v>7.02327313542971E-3</v>
+      </c>
+      <c r="I22" s="9">
+        <v>9.0469038344655993E-3</v>
+      </c>
+      <c r="J22" s="9">
+        <v>1.1818154255296901E-2</v>
+      </c>
+      <c r="K22" s="9">
+        <v>8.1213918856247701E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="H23" s="9">
+        <v>2.4768748149202199E-2</v>
+      </c>
+      <c r="I23" s="9">
+        <v>3.1724849872776698E-2</v>
+      </c>
+      <c r="J23" s="9">
+        <v>2.3807802260534E-2</v>
+      </c>
+      <c r="K23" s="9">
+        <v>2.2983584929410199E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="H24" s="9">
+        <v>2.6107728864194199E-2</v>
+      </c>
+      <c r="I24" s="9">
+        <v>3.1154787266854E-2</v>
+      </c>
+      <c r="J24" s="9">
+        <v>2.3929977893278699E-2</v>
+      </c>
+      <c r="K24" s="9">
+        <v>2.2819218498016099E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="H25" s="9">
+        <v>6.5495029655182604E-3</v>
+      </c>
+      <c r="I25" s="9">
+        <v>6.40595988924441E-3</v>
+      </c>
+      <c r="J25" s="9">
+        <v>4.6147983346780299E-3</v>
+      </c>
+      <c r="K25" s="9">
+        <v>3.00654323778604E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="H26" s="9">
+        <v>1.62947328168273E-2</v>
+      </c>
+      <c r="I26" s="9">
+        <v>2.1954457996182199E-2</v>
+      </c>
+      <c r="J26" s="9">
+        <v>1.71463897042722E-3</v>
+      </c>
+      <c r="K26" s="9">
+        <v>9.4526011162685501E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="H27" s="9">
+        <v>2.6236387343948699E-2</v>
+      </c>
+      <c r="I27" s="9">
+        <v>2.8894922941178201E-2</v>
+      </c>
+      <c r="J27" s="9">
+        <v>2.1883223325922001E-2</v>
+      </c>
+      <c r="K27" s="9">
+        <v>2.0988218479703499E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="H29">
+        <f>H21*100</f>
+        <v>-8.1143510053693593</v>
+      </c>
+      <c r="I29">
+        <f>I21*100</f>
+        <v>-8.3485252128143888</v>
+      </c>
+      <c r="J29">
+        <f>J21*100</f>
+        <v>-9.2038579067394295</v>
+      </c>
+      <c r="K29">
+        <f>K21*100</f>
+        <v>-7.7307422241647199</v>
+      </c>
+    </row>
+    <row r="30" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="H30">
+        <f t="shared" ref="H30:K36" si="0">H22*100</f>
+        <v>0.70232731354297095</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>0.90469038344655994</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>1.18181542552969</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>0.81213918856247702</v>
+      </c>
+    </row>
+    <row r="31" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>2.4768748149202198</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>3.1724849872776697</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>2.3807802260534001</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>2.2983584929410199</v>
+      </c>
+    </row>
+    <row r="32" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>2.61077288641942</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>3.1154787266854003</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>2.39299778932787</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>2.2819218498016101</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>0.65495029655182602</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>0.64059598892444103</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>0.46147983346780297</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>0.30065432377860402</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>1.62947328168273</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>2.19544579961822</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0.171463897042722</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>0.94526011162685497</v>
+      </c>
+    </row>
+    <row r="35" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>2.6236387343948699</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>2.88949229411782</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>2.1883223325922003</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>2.09882184797035</v>
       </c>
     </row>
   </sheetData>
